--- a/Employee_Reports35/Jacky Chan Nava Gastardo Q0575.xlsx
+++ b/Employee_Reports35/Jacky Chan Nava Gastardo Q0575.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-130</v>
+        <v>-131</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-153</v>
+        <v>-154</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1524,85 +1524,85 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>14-Aug-2024</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>14-Aug-2025</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>-82</v>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="n">
-        <v>-81</v>
-      </c>
-      <c r="I23" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr"/>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H24" s="4" t="n">
-        <v>-81</v>
-      </c>
-      <c r="I24" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>13-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1610,40 +1610,28 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
+      <c r="E25" s="3" t="inlineStr"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>12-Jun-2025</t>
+          <t>25-Mar-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>12-Jun-2026</t>
+          <t>25-Mar-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1659,40 +1647,28 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-009</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr"/>
+      <c r="D26" s="3" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2025</t>
+          <t>10-Jul-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2026</t>
+          <t>10-Jul-2027</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>266</v>
+        <v>613</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1701,350 +1677,6 @@
         </is>
       </c>
       <c r="K26" s="3" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-010</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-001</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K28" s="3" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>SOP for Non Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>01-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>01-Oct-2026</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="n">
-        <v>332</v>
-      </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>01-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>01-Oct-2026</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>332</v>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-018</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>31-Aug-2025</t>
-        </is>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>31-Aug-2026</t>
-        </is>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>301</v>
-      </c>
-      <c r="I33" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K33" s="3" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="inlineStr"/>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>10-Jul-2027</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>614</v>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jacky Chan Nava Gastardo Q0575.xlsx
+++ b/Employee_Reports35/Jacky Chan Nava Gastardo Q0575.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-131</v>
+        <v>-132</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-154</v>
+        <v>-155</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>-82</v>
+        <v>-83</v>
       </c>
       <c r="I23" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="4" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1664,11 +1664,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
